--- a/src/omniroute_operation/src/single_T_maze/Training_Trials _testing3.xlsx
+++ b/src/omniroute_operation/src/single_T_maze/Training_Trials _testing3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="15">
   <si>
     <t xml:space="preserve">Left_Cue</t>
   </si>
@@ -49,13 +49,22 @@
     <t xml:space="preserve">Black</t>
   </si>
   <si>
-    <t xml:space="preserve">forced_choice</t>
+    <t xml:space="preserve">choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
   </si>
   <si>
     <t xml:space="preserve">Green</t>
   </si>
   <si>
-    <t xml:space="preserve">choice</t>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL</t>
   </si>
 </sst>
 </file>
@@ -196,11 +205,11 @@
   </sheetPr>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
   </cols>
@@ -240,11 +249,11 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.177914211161321</v>
+        <v>0.09999471941528</v>
       </c>
       <c r="F2" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0544224791015095</v>
+        <v>0.3649701448048</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,11 +271,11 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.476033807503005</v>
+        <v>0.935000259148736</v>
       </c>
       <c r="F3" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.559798406566377</v>
+        <v>0.729378908810821</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,18 +286,18 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.658896954581095</v>
+        <v>0.665741924218417</v>
       </c>
       <c r="F4" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.850600989128924</v>
+        <v>0.948958509990929</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,11 +315,11 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.169152478364751</v>
+        <v>0.56625897355963</v>
       </c>
       <c r="F5" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.555564552783467</v>
+        <v>0.884036944674892</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,18 +330,18 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.863667478965522</v>
+        <v>0.402270147722601</v>
       </c>
       <c r="F6" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.42067266308171</v>
+        <v>0.440869258800429</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,11 +359,11 @@
       </c>
       <c r="E7" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.632643376577215</v>
+        <v>0.502757835719738</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.576647263183438</v>
+        <v>0.369840216112418</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,11 +381,11 @@
       </c>
       <c r="E8" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.715847539687016</v>
+        <v>0.930363119422576</v>
       </c>
       <c r="F8" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.663233164051796</v>
+        <v>0.652743280440208</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,11 +403,11 @@
       </c>
       <c r="E9" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.29698695365666</v>
+        <v>0.839323591532612</v>
       </c>
       <c r="F9" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.702691396743927</v>
+        <v>0.450437985307966</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,19 +425,19 @@
       </c>
       <c r="E10" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.441610736252443</v>
+        <v>0.00153444042089421</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.652852333957263</v>
+        <v>0.00244070084576485</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -438,11 +447,11 @@
       </c>
       <c r="E11" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.859109152047564</v>
+        <v>0.601019886118786</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.934407446545599</v>
+        <v>0.750400145027814</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,11 +469,14 @@
       </c>
       <c r="E12" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.719323522394983</v>
+        <v>0.624561946840252</v>
       </c>
       <c r="F12" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.937177213035779</v>
+        <v>0.756768225812787</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,18 +487,21 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.757759276860797</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.0623146582744548</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.188559978150699</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.987219532708849</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,62 +512,71 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.403293075534547</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.554913295586047</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.574062463547512</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.404519568963933</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0506540811997212</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.911373979495299</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.549197178687473</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.63556172418922</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.898363340068104</v>
+        <v>0.523691466846225</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.845958347201904</v>
+        <v>0.373513924291131</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,18 +587,21 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.0430745761888268</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.635919779683194</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.636218103655751</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.85477482252049</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,62 +612,71 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.536404738299316</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.4350337091349</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.165312743998285</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.157329723951416</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.7281188181725</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.372000448451595</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.917030217534695</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0575718632764036</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.891259216533398</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.920305201768756</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.428522449467961</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.34954186878316</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,40 +687,46 @@
         <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.476088034418999</v>
+        <v>0.871192287682145</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.873748686039228</v>
+        <v>0.254535615382457</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.295385404598332</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.521333248398476</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.370721312867026</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.363611337446711</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,18 +737,21 @@
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.931405899985323</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.775982685428917</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.208156853768074</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.354875162669634</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,18 +762,21 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.934938486407303</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.609866295736474</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.886769817862296</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.728999876752602</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,18 +787,21 @@
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.172579718505158</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.540270831026937</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.546066467379649</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.900740383987165</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,18 +812,21 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.805097832554975</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.825921291175332</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.26633060230789</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.290884388003423</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,18 +837,21 @@
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.160012734856553</v>
+        <v>0.181218929494305</v>
       </c>
       <c r="F27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.465728237511098</v>
+        <v>0.204438114614327</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,18 +862,21 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0994160218984304</v>
+        <v>0.502185266963086</v>
       </c>
       <c r="F28" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.155309363511068</v>
+        <v>0.716775008811251</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,18 +887,21 @@
         <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.582984581198055</v>
+        <v>0.928800032168239</v>
       </c>
       <c r="F29" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.159610834015886</v>
+        <v>0.170400824872602</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,18 +912,21 @@
         <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.847910439203172</v>
+        <v>0.665796849755324</v>
       </c>
       <c r="F30" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.328624646126021</v>
+        <v>0.651669790158995</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,18 +937,21 @@
         <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.709681828094801</v>
+        <v>0.244276492916607</v>
       </c>
       <c r="F31" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.28086513460741</v>
+        <v>0.456836896841434</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,18 +962,21 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.964911527974908</v>
+        <v>0.714430079245652</v>
       </c>
       <c r="F32" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.283610785178525</v>
+        <v>0.50345542779484</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,40 +987,46 @@
         <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.828127455952044</v>
+        <v>0.867498246843057</v>
       </c>
       <c r="F33" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.761796418368634</v>
+        <v>0.549637814606856</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.279103002382773</v>
+        <v>0.62074040449207</v>
       </c>
       <c r="F34" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.289362457436018</v>
+        <v>0.167154421255705</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,18 +1037,21 @@
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.722576656549155</v>
+        <v>0.0989508952569897</v>
       </c>
       <c r="F35" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.825830811480824</v>
+        <v>0.503223157455179</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,18 +1062,21 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.137926833962082</v>
+        <v>0.275942059685512</v>
       </c>
       <c r="F36" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0535725708477593</v>
+        <v>0.757087049459893</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,18 +1087,21 @@
         <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.892983488490342</v>
+        <v>0.880066317453268</v>
       </c>
       <c r="F37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.145344036244614</v>
+        <v>0.82922923881081</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,18 +1112,21 @@
         <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E38" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.984589958024357</v>
+        <v>0.366731755625243</v>
       </c>
       <c r="F38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.258194525412059</v>
+        <v>0.493598465802269</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,40 +1137,46 @@
         <v>6</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.234154905093755</v>
+        <v>0.158831143411003</v>
       </c>
       <c r="F39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.349449831387594</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.243680719696497</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.867759550199134</v>
+        <v>0.732304351690235</v>
       </c>
       <c r="F40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.917673227166211</v>
+        <v>0.827018618609609</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,18 +1187,21 @@
         <v>6</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.829464969113602</v>
+        <v>0.221268753253997</v>
       </c>
       <c r="F41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.391382383699476</v>
+        <v>0.199831173407048</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,18 +1212,21 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E42" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.329963385357128</v>
+        <v>0.956077697336527</v>
       </c>
       <c r="F42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.83326391003082</v>
+        <v>0.0930471625678411</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,18 +1237,21 @@
         <v>7</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.352976237354506</v>
+        <v>0.498378433616843</v>
       </c>
       <c r="F43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.932497001371318</v>
+        <v>0.455305633125139</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,18 +1262,21 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.228269252418917</v>
+        <v>0.783866919401233</v>
       </c>
       <c r="F44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.749309158073546</v>
+        <v>0.559147837040961</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,18 +1287,21 @@
         <v>7</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.291769975933919</v>
+        <v>0.16517445292952</v>
       </c>
       <c r="F45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.818776127335497</v>
+        <v>0.734974570329016</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,18 +1312,21 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.118638935258061</v>
+        <v>0.881431399800408</v>
       </c>
       <c r="F46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.164691633288863</v>
+        <v>0.452782543422834</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,18 +1337,21 @@
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.976252492628383</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.772492301327441</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.55633301843384</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.361389098755003</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,18 +1362,21 @@
         <v>6</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.457769814918709</v>
+        <v>0.85807377387364</v>
       </c>
       <c r="F48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.227767182071052</v>
+        <v>0.498071259345508</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,18 +1387,21 @@
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.159554742908614</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.451496025279578</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.408734750004855</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.864556165973838</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,40 +1412,46 @@
         <v>6</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.875113664446348</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.3616857538685</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.957542740810216</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.794239801537531</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.307608821186084</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.460094584264124</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.40546227270476</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.203052132948918</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,18 +1462,21 @@
         <v>7</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0343609030489366</v>
+        <v>0.0332400795448134</v>
       </c>
       <c r="F52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.370351154698227</v>
+        <v>0.215271259631569</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,15 +1490,18 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.221218969928972</v>
+        <v>0.00525736021906537</v>
       </c>
       <c r="F53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.545000821260282</v>
+        <v>0.429648378646153</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,15 +1515,18 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E54" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.164682517867182</v>
+        <v>0.453524257543244</v>
       </c>
       <c r="F54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.139290178579279</v>
+        <v>0.662946146785831</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,18 +1537,21 @@
         <v>7</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E55" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.129410509218204</v>
+        <v>0.204625980084196</v>
       </c>
       <c r="F55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.133192267978053</v>
+        <v>0.978103575790386</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,18 +1562,21 @@
         <v>7</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.969868775208318</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.533442447786959</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.570175332994324</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.394816336530382</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,18 +1587,21 @@
         <v>6</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.520186056512634</v>
+        <v>0.0903631738431578</v>
       </c>
       <c r="F57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.681194523345171</v>
+        <v>0.169458603056959</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,18 +1612,21 @@
         <v>6</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.0631330875652841</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.621690534282817</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.837265659312118</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.321026100182584</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,18 +1637,21 @@
         <v>6</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E59" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.548117863557364</v>
+        <v>0.415839576298501</v>
       </c>
       <c r="F59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0511733894735232</v>
+        <v>0.932458237482032</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,18 +1662,21 @@
         <v>7</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0846574715718498</v>
+        <v>0.152087255253488</v>
       </c>
       <c r="F60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.915073739951909</v>
+        <v>0.755092310522</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,18 +1687,21 @@
         <v>6</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E61" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0723135991330814</v>
+        <v>0.361615319589495</v>
       </c>
       <c r="F61" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.404449331706959</v>
+        <v>0.697243319883567</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/omniroute_operation/src/single_T_maze/Training_Trials _testing3.xlsx
+++ b/src/omniroute_operation/src/single_T_maze/Training_Trials _testing3.xlsx
@@ -75,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -117,6 +117,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,6 +192,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,10 +216,10 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
   </cols>
@@ -249,11 +259,11 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.09999471941528</v>
+        <v>0.898110167121767</v>
       </c>
       <c r="F2" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.3649701448048</v>
+        <v>0.790921801579089</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,11 +281,11 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.935000259148736</v>
+        <v>0.250019380218444</v>
       </c>
       <c r="F3" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.729378908810821</v>
+        <v>0.152172034577269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,11 +303,11 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.665741924218417</v>
+        <v>0.140461652370276</v>
       </c>
       <c r="F4" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.948958509990929</v>
+        <v>0.899013412951172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,11 +325,11 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.56625897355963</v>
+        <v>0.293382585740408</v>
       </c>
       <c r="F5" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.884036944674892</v>
+        <v>0.211010766999062</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,19 +347,19 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.402270147722601</v>
+        <v>0.578571203451079</v>
       </c>
       <c r="F6" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.440869258800429</v>
+        <v>0.328050306225509</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -359,11 +369,11 @@
       </c>
       <c r="E7" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.502757835719738</v>
+        <v>0.303926168519492</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.369840216112418</v>
+        <v>0.791321427385149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,11 +391,11 @@
       </c>
       <c r="E8" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.930363119422576</v>
+        <v>0.128599419265268</v>
       </c>
       <c r="F8" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.652743280440208</v>
+        <v>0.601735704088823</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,11 +413,11 @@
       </c>
       <c r="E9" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.839323591532612</v>
+        <v>0.625265044398323</v>
       </c>
       <c r="F9" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.450437985307966</v>
+        <v>0.356780723938029</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,11 +435,11 @@
       </c>
       <c r="E10" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00153444042089421</v>
+        <v>0.948000370276296</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00244070084576485</v>
+        <v>0.574892773266997</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,11 +457,11 @@
       </c>
       <c r="E11" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.601019886118786</v>
+        <v>0.147478404614799</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.750400145027814</v>
+        <v>0.321467451311143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,11 +479,11 @@
       </c>
       <c r="E12" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.624561946840252</v>
+        <v>0.368600575415179</v>
       </c>
       <c r="F12" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.756768225812787</v>
+        <v>0.372338546155589</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>10</v>
@@ -494,11 +504,11 @@
       </c>
       <c r="E13" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.757759276860797</v>
+        <v>0.991862072093305</v>
       </c>
       <c r="F13" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0623146582744548</v>
+        <v>0.220442193840805</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>10</v>
@@ -519,11 +529,11 @@
       </c>
       <c r="E14" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.403293075534547</v>
+        <v>0.252953791854617</v>
       </c>
       <c r="F14" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.554913295586047</v>
+        <v>0.199188930189182</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>11</v>
@@ -544,11 +554,11 @@
       </c>
       <c r="E15" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.574062463547512</v>
+        <v>0.794214909086127</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.404519568963933</v>
+        <v>0.784387819825152</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>10</v>
@@ -569,22 +579,22 @@
       </c>
       <c r="E16" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.523691466846225</v>
+        <v>0.964036144723724</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.373513924291131</v>
+        <v>0.164524798765948</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
@@ -594,11 +604,11 @@
       </c>
       <c r="E17" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0430745761888268</v>
+        <v>0.59553417675144</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.635919779683194</v>
+        <v>0.522242403905899</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>10</v>
@@ -619,11 +629,11 @@
       </c>
       <c r="E18" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.536404738299316</v>
+        <v>0.174310965599458</v>
       </c>
       <c r="F18" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.4350337091349</v>
+        <v>0.858151431399697</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>11</v>
@@ -644,11 +654,11 @@
       </c>
       <c r="E19" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.165312743998285</v>
+        <v>0.918660141448481</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.157329723951416</v>
+        <v>0.464674435086409</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>11</v>
@@ -669,11 +679,11 @@
       </c>
       <c r="E20" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.7281188181725</v>
+        <v>0.543662384667002</v>
       </c>
       <c r="F20" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.372000448451595</v>
+        <v>0.0356982154811278</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>10</v>
@@ -694,11 +704,11 @@
       </c>
       <c r="E21" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.871192287682145</v>
+        <v>0.0596385278053523</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="true">RAND()</f>
-        <v>0.254535615382457</v>
+        <v>0.562805956887051</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>11</v>
@@ -719,11 +729,11 @@
       </c>
       <c r="E22" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.295385404598332</v>
+        <v>0.241048648305423</v>
       </c>
       <c r="F22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.521333248398476</v>
+        <v>0.0170228768665126</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>10</v>
@@ -744,11 +754,11 @@
       </c>
       <c r="E23" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.931405899985323</v>
+        <v>0.725188154786094</v>
       </c>
       <c r="F23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.775982685428917</v>
+        <v>0.0708185492867722</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>11</v>
@@ -769,11 +779,11 @@
       </c>
       <c r="E24" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.934938486407303</v>
+        <v>0.533254504983053</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.609866295736474</v>
+        <v>0.859412475387635</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>10</v>
@@ -794,11 +804,11 @@
       </c>
       <c r="E25" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.172579718505158</v>
+        <v>0.347242938336559</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.540270831026937</v>
+        <v>0.266440342267897</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>10</v>
@@ -819,11 +829,11 @@
       </c>
       <c r="E26" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.805097832554975</v>
+        <v>0.635342525265506</v>
       </c>
       <c r="F26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.825921291175332</v>
+        <v>0.736575144096852</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>11</v>
@@ -844,11 +854,11 @@
       </c>
       <c r="E27" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.181218929494305</v>
+        <v>0.0614666960893446</v>
       </c>
       <c r="F27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.204438114614327</v>
+        <v>0.18256422912621</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>13</v>
@@ -869,11 +879,11 @@
       </c>
       <c r="E28" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.502185266963086</v>
+        <v>0.237438639872272</v>
       </c>
       <c r="F28" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.716775008811251</v>
+        <v>0.297031221873317</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>13</v>
@@ -894,11 +904,11 @@
       </c>
       <c r="E29" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.928800032168239</v>
+        <v>0.599676408478672</v>
       </c>
       <c r="F29" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.170400824872602</v>
+        <v>0.0820446686389648</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>13</v>
@@ -919,11 +929,11 @@
       </c>
       <c r="E30" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.665796849755324</v>
+        <v>0.639866130791894</v>
       </c>
       <c r="F30" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.651669790158995</v>
+        <v>0.32545581315669</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>14</v>
@@ -944,11 +954,11 @@
       </c>
       <c r="E31" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.244276492916607</v>
+        <v>0.988645291660406</v>
       </c>
       <c r="F31" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.456836896841434</v>
+        <v>0.650946077666502</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>14</v>
@@ -969,11 +979,11 @@
       </c>
       <c r="E32" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.714430079245652</v>
+        <v>0.584291730534821</v>
       </c>
       <c r="F32" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.50345542779484</v>
+        <v>0.325079422999975</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>13</v>
@@ -994,11 +1004,11 @@
       </c>
       <c r="E33" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.867498246843057</v>
+        <v>0.603337618514629</v>
       </c>
       <c r="F33" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.549637814606856</v>
+        <v>0.550299536238367</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>14</v>
@@ -1019,11 +1029,11 @@
       </c>
       <c r="E34" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.62074040449207</v>
+        <v>0.321950273601797</v>
       </c>
       <c r="F34" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.167154421255705</v>
+        <v>0.615387524060294</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>13</v>
@@ -1044,11 +1054,11 @@
       </c>
       <c r="E35" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0989508952569897</v>
+        <v>0.678286210504373</v>
       </c>
       <c r="F35" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.503223157455179</v>
+        <v>0.164970960726182</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>14</v>
@@ -1069,11 +1079,11 @@
       </c>
       <c r="E36" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.275942059685512</v>
+        <v>0.474186455868269</v>
       </c>
       <c r="F36" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.757087049459893</v>
+        <v>0.782317000850721</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>13</v>
@@ -1094,11 +1104,11 @@
       </c>
       <c r="E37" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.880066317453268</v>
+        <v>0.531869860404686</v>
       </c>
       <c r="F37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.82922923881081</v>
+        <v>0.415922935555384</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>14</v>
@@ -1119,11 +1129,11 @@
       </c>
       <c r="E38" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.366731755625243</v>
+        <v>0.139791414836196</v>
       </c>
       <c r="F38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.493598465802269</v>
+        <v>0.757185835657378</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>14</v>
@@ -1144,11 +1154,11 @@
       </c>
       <c r="E39" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.158831143411003</v>
+        <v>0.966994635663895</v>
       </c>
       <c r="F39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.243680719696497</v>
+        <v>0.990098677825559</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>14</v>
@@ -1169,11 +1179,11 @@
       </c>
       <c r="E40" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.732304351690235</v>
+        <v>0.395208585665717</v>
       </c>
       <c r="F40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.827018618609609</v>
+        <v>0.798550024473138</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>13</v>
@@ -1194,11 +1204,11 @@
       </c>
       <c r="E41" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.221268753253997</v>
+        <v>0.880327957921156</v>
       </c>
       <c r="F41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.199831173407048</v>
+        <v>0.172694801194695</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>14</v>
@@ -1219,11 +1229,11 @@
       </c>
       <c r="E42" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.956077697336527</v>
+        <v>0.841472227644084</v>
       </c>
       <c r="F42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0930471625678411</v>
+        <v>0.959792554153221</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>10</v>
@@ -1244,11 +1254,11 @@
       </c>
       <c r="E43" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.498378433616843</v>
+        <v>0.715881656478097</v>
       </c>
       <c r="F43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.455305633125139</v>
+        <v>0.227947083593686</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>13</v>
@@ -1269,11 +1279,11 @@
       </c>
       <c r="E44" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.783866919401233</v>
+        <v>0.490021023498359</v>
       </c>
       <c r="F44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.559147837040961</v>
+        <v>0.283007605204384</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>13</v>
@@ -1294,11 +1304,11 @@
       </c>
       <c r="E45" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.16517445292952</v>
+        <v>0.223237741915223</v>
       </c>
       <c r="F45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.734974570329016</v>
+        <v>0.209518218605007</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>13</v>
@@ -1319,11 +1329,11 @@
       </c>
       <c r="E46" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.881431399800408</v>
+        <v>0.65141058882066</v>
       </c>
       <c r="F46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.452782543422834</v>
+        <v>0.290675751135672</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>13</v>
@@ -1344,11 +1354,11 @@
       </c>
       <c r="E47" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.976252492628383</v>
+        <v>0.162065810867791</v>
       </c>
       <c r="F47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.772492301327441</v>
+        <v>0.234364482855474</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>10</v>
@@ -1369,11 +1379,11 @@
       </c>
       <c r="E48" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.85807377387364</v>
+        <v>0.355586011061727</v>
       </c>
       <c r="F48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.498071259345508</v>
+        <v>0.73147679258509</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>13</v>
@@ -1394,11 +1404,11 @@
       </c>
       <c r="E49" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.159554742908614</v>
+        <v>0.0331977273564163</v>
       </c>
       <c r="F49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.451496025279578</v>
+        <v>0.91487158007931</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>11</v>
@@ -1419,11 +1429,11 @@
       </c>
       <c r="E50" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.875113664446348</v>
+        <v>0.963396581072426</v>
       </c>
       <c r="F50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.3616857538685</v>
+        <v>0.382826135572296</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>14</v>
@@ -1444,11 +1454,11 @@
       </c>
       <c r="E51" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.957542740810216</v>
+        <v>0.23630178215034</v>
       </c>
       <c r="F51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.794239801537531</v>
+        <v>0.467489477955971</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>10</v>
@@ -1469,11 +1479,11 @@
       </c>
       <c r="E52" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0332400795448134</v>
+        <v>0.000109324728403071</v>
       </c>
       <c r="F52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.215271259631569</v>
+        <v>0.383803088773518</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>13</v>
@@ -1494,11 +1504,11 @@
       </c>
       <c r="E53" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00525736021906537</v>
+        <v>0.418131350599492</v>
       </c>
       <c r="F53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.429648378646153</v>
+        <v>0.908263331223958</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>10</v>
@@ -1519,11 +1529,11 @@
       </c>
       <c r="E54" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.453524257543244</v>
+        <v>0.288718514102253</v>
       </c>
       <c r="F54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.662946146785831</v>
+        <v>0.848037930679019</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>10</v>
@@ -1544,11 +1554,11 @@
       </c>
       <c r="E55" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.204625980084196</v>
+        <v>0.553353289475556</v>
       </c>
       <c r="F55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.978103575790386</v>
+        <v>0.984904220268851</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>13</v>
@@ -1569,11 +1579,11 @@
       </c>
       <c r="E56" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.969868775208318</v>
+        <v>0.902704448767901</v>
       </c>
       <c r="F56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.533442447786959</v>
+        <v>0.262115347365562</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>10</v>
@@ -1594,11 +1604,11 @@
       </c>
       <c r="E57" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0903631738431578</v>
+        <v>0.48531050191119</v>
       </c>
       <c r="F57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.169458603056959</v>
+        <v>0.556542264841901</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>14</v>
@@ -1619,11 +1629,11 @@
       </c>
       <c r="E58" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0631330875652841</v>
+        <v>0.916087724990126</v>
       </c>
       <c r="F58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.621690534282817</v>
+        <v>0.600411740892726</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>11</v>
@@ -1644,11 +1654,11 @@
       </c>
       <c r="E59" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.415839576298501</v>
+        <v>0.854835137571339</v>
       </c>
       <c r="F59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.932458237482032</v>
+        <v>0.939267703557092</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>14</v>
@@ -1669,11 +1679,11 @@
       </c>
       <c r="E60" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.152087255253488</v>
+        <v>0.423783197838319</v>
       </c>
       <c r="F60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.755092310522</v>
+        <v>0.0700209750404708</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>13</v>
@@ -1694,11 +1704,11 @@
       </c>
       <c r="E61" s="1" t="n">
         <f aca="true">RAND()</f>
-        <v>0.361615319589495</v>
+        <v>0.554904967133709</v>
       </c>
       <c r="F61" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.697243319883567</v>
+        <v>0.0610236855658074</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>14</v>
